--- a/论文/Fitting_Result_v3.xlsx
+++ b/论文/Fitting_Result_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73948\PycharmProjects\Algorithm_Space\论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB5406-D70F-4D67-B8B8-80902168D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9046071-9344-4812-8E9D-2EC57907F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="群体" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>S:</t>
   </si>
@@ -59,9 +59,6 @@
     <t>D:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>beta_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,69 +146,11 @@
     <t>Pacific</t>
   </si>
   <si>
-    <t>0.         0.22939736 0.06655618 0.03937042 0.09365498 0.05728045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.03911828 0.02573186 0.02055586]</t>
-  </si>
-  <si>
-    <t>0.22939736 0.         0.08748926 0.04571236 0.15464016 0.07623564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.04692767 0.02846144 0.02218021]</t>
-  </si>
-  <si>
-    <t>0.06655618 0.08748926 0.         0.09570315 0.10121519 0.13551463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.0821069  0.04195074 0.02968844]</t>
-  </si>
-  <si>
-    <t>0.03937042 0.04571236 0.09570315 0.         0.05176026 0.07660105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1048691  0.07352572 0.04300841]</t>
-  </si>
-  <si>
-    <t>0.09365498 0.15464016 0.10121519 0.05176026 0.         0.12834158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.06139547 0.03163709 0.02390827]</t>
-  </si>
-  <si>
-    <t>0.05728045 0.07623564 0.13551463 0.07660105 0.12834158 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.11768863 0.04135017 0.0290218 ]</t>
-  </si>
-  <si>
-    <t>0.03911828 0.04692767 0.0821069  0.1048691  0.06139547 0.11768863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.         0.06035495 0.03734509]</t>
-  </si>
-  <si>
-    <t>0.02573186 0.02846144 0.04195074 0.07352572 0.03163709 0.04135017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.06035495 0.         0.09728701]</t>
-  </si>
-  <si>
-    <t>0.02055586 0.02218021 0.02968844 0.04300841 0.02390827 0.0290218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.03734509 0.09728701 0.        ]]</t>
-  </si>
-  <si>
     <t>坐标0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坐标1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证距离倒数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,7 +525,7 @@
         <v>49686544.654397003</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -783,7 +722,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1019,10 +958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3160DA2-B914-4F96-ACFF-822072FE1182}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1038,39 +977,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>15116205</v>
@@ -1102,7 +1041,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>43.09949421666667</v>
@@ -1134,7 +1073,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>-71.590553933333325</v>
@@ -1162,123 +1101,6 @@
       </c>
       <c r="J4">
         <v>-120.23742406666599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97342871-D4A4-4237-9A20-5C2D399E33F7}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <v>8.3615519879371904E-3</v>
@@ -1335,7 +1157,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1.8046178957765401E-2</v>
@@ -1367,7 +1189,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>4.5259070419085501E-2</v>
@@ -1399,7 +1221,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.24225308953045499</v>
@@ -1431,7 +1253,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>6.0021342451782901E-5</v>
@@ -1463,7 +1285,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>4.65026462001014E-4</v>
@@ -1495,7 +1317,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>2.86957084719217E-4</v>
@@ -1527,7 +1349,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>3.7014467475616201E-2</v>
@@ -1559,7 +1381,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>6.8046206939113996E-3</v>
@@ -1591,7 +1413,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2.8413002590655399E-2</v>
@@ -1623,7 +1445,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.50917842396070401</v>
@@ -1631,7 +1453,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.121561862344309</v>
@@ -1639,7 +1461,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0.98473691356689697</v>
